--- a/Double_Slit/week_q1/Book1.xlsx
+++ b/Double_Slit/week_q1/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacks_000\Documents\GitHub\Experiment_In_Modern_Physics\Double_Slit\week_q1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackson\Documents\GitHub\Experiment_In_Modern_Physics\Double_Slit\week_q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -990,11 +990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269668256"/>
-        <c:axId val="269669824"/>
+        <c:axId val="321606024"/>
+        <c:axId val="321606416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269668256"/>
+        <c:axId val="321606024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,12 +1051,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269669824"/>
+        <c:crossAx val="321606416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269669824"/>
+        <c:axId val="321606416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269668256"/>
+        <c:crossAx val="321606024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2166,11 +2166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="487284368"/>
-        <c:axId val="487283584"/>
+        <c:axId val="321610728"/>
+        <c:axId val="321612296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="487284368"/>
+        <c:axId val="321610728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,12 +2227,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487283584"/>
+        <c:crossAx val="321612296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487283584"/>
+        <c:axId val="321612296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487284368"/>
+        <c:crossAx val="321610728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2544,11 +2544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483278992"/>
-        <c:axId val="483276640"/>
+        <c:axId val="321615432"/>
+        <c:axId val="321616216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483278992"/>
+        <c:axId val="321615432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,12 +2605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483276640"/>
+        <c:crossAx val="321616216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483276640"/>
+        <c:axId val="321616216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483278992"/>
+        <c:crossAx val="321615432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4394,10 +4394,10 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>386149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4418,16 +4418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466210</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68477</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>286006</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161410</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>49427</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>506283</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>137297</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4448,16 +4448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>473548</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>26752</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>70238</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>181718</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>34048</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>524962</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4744,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Double_Slit/week_q1/Book1.xlsx
+++ b/Double_Slit/week_q1/Book1.xlsx
@@ -990,11 +990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321606024"/>
-        <c:axId val="321606416"/>
+        <c:axId val="232393272"/>
+        <c:axId val="232392488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321606024"/>
+        <c:axId val="232393272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,12 +1051,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321606416"/>
+        <c:crossAx val="232392488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321606416"/>
+        <c:axId val="232392488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321606024"/>
+        <c:crossAx val="232393272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1209,7 +1209,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6780204571696735E-2"/>
+          <c:y val="3.4311978858999892E-2"/>
+          <c:w val="0.9552243368025739"/>
+          <c:h val="0.87143506728803677"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2166,11 +2176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321610728"/>
-        <c:axId val="321612296"/>
+        <c:axId val="300808512"/>
+        <c:axId val="300809296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321610728"/>
+        <c:axId val="300808512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,12 +2237,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321612296"/>
+        <c:crossAx val="300809296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321612296"/>
+        <c:axId val="300809296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321610728"/>
+        <c:crossAx val="300808512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2544,11 +2554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321615432"/>
-        <c:axId val="321616216"/>
+        <c:axId val="300808904"/>
+        <c:axId val="300815960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321615432"/>
+        <c:axId val="300808904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,12 +2615,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321616216"/>
+        <c:crossAx val="300815960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321616216"/>
+        <c:axId val="300815960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321615432"/>
+        <c:crossAx val="300808904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4745,7 +4755,7 @@
   <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K159" sqref="K159"/>
+      <selection activeCell="D151" sqref="D2:E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
